--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/CalmaVR_Carta_Gantt.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/CalmaVR_Carta_Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alons\Desktop\APT_Proyecto\VRCalm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365C4756-11BB-4CF2-95EC-ADB763D8086C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{365C4756-11BB-4CF2-95EC-ADB763D8086C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{469F38E6-D9E4-4743-93DF-8D094F70ADDD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Fase 1</t>
   </si>
@@ -152,7 +152,7 @@
     <t>Desarrollo de interfaz de usuario</t>
   </si>
   <si>
-    <t>Desarrollo de terapias básicas (cromoterapia, respiración, música)</t>
+    <t>Desarrollo de terapias básicas (respiración, música)</t>
   </si>
   <si>
     <t>Implementación de guía auditiva con voz empática</t>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Prueba controlada con estudiantes</t>
+  </si>
+  <si>
+    <t>Base de Datos</t>
   </si>
   <si>
     <t>Optimización del entorno VR</t>
@@ -198,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +231,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="20">
@@ -346,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -523,11 +532,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -833,6 +857,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="J3:L20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1843,9 +1877,9 @@
       <c r="T24" s="55"/>
       <c r="U24" s="26"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" ht="15">
       <c r="A25" s="26"/>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="104" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="37"/>
@@ -1872,12 +1906,12 @@
       <c r="T25" s="55"/>
       <c r="U25" s="26"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" s="26"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="37"/>
       <c r="E26" s="19"/>
       <c r="F26" s="79"/>
@@ -1903,7 +1937,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="26"/>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="105" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="37"/>
@@ -1947,13 +1981,13 @@
       <c r="L28" s="19"/>
       <c r="M28" s="69"/>
       <c r="N28" s="19"/>
-      <c r="O28" s="13" t="s">
+      <c r="O28" s="39" t="s">
         <v>24</v>
       </c>
       <c r="P28" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="95"/>
+      <c r="Q28" s="94"/>
       <c r="R28" s="19"/>
       <c r="S28" s="21"/>
       <c r="T28" s="55"/>
@@ -1976,11 +2010,13 @@
       <c r="L29" s="19"/>
       <c r="M29" s="69"/>
       <c r="N29" s="19"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="39" t="s">
-        <v>24</v>
-      </c>
+      <c r="O29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="95"/>
       <c r="R29" s="19"/>
       <c r="S29" s="21"/>
       <c r="T29" s="55"/>
@@ -1988,56 +2024,54 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="26"/>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="79"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="63"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="43"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="19"/>
       <c r="M30" s="69"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="59"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="19"/>
+      <c r="S30" s="21"/>
       <c r="T30" s="55"/>
       <c r="U30" s="26"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="26"/>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="19"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="79"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
       <c r="I31" s="63"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="19"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="43"/>
       <c r="M31" s="69"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="S31" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="T31" s="56"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="55"/>
       <c r="U31" s="26"/>
     </row>
     <row r="32" spans="1:21">
@@ -2045,52 +2079,81 @@
       <c r="B32" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="S32" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="T32" s="57"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="T32" s="56"/>
       <c r="U32" s="26"/>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
+      <c r="B33" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" s="57"/>
       <c r="U33" s="26"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
